--- a/pictures/Mappe1.xlsx
+++ b/pictures/Mappe1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuebboTerHell\PycharmProjects\Arduino-Nano-Fragment-Two-Buttons-With-Diagnostic\pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7970DE4-EB5C-4FC5-892F-B18EEB01023D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25101CCF-03F7-4C06-954D-A5B740F91719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88607819-2EE3-4F49-9535-AC2269C63CFE}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{88607819-2EE3-4F49-9535-AC2269C63CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>R1</t>
   </si>
@@ -55,40 +56,46 @@
 highest curent</t>
   </si>
   <si>
-    <t>I=U/R4</t>
-  </si>
-  <si>
     <t>case 2: B2 pressed</t>
   </si>
   <si>
-    <t>I=U/(R3+R4)</t>
-  </si>
-  <si>
     <t>case 3: B1 pressed</t>
   </si>
   <si>
-    <t>I=U/(R2+R3+R4)</t>
-  </si>
-  <si>
     <t>case 4: B1 one line cutted</t>
   </si>
   <si>
-    <t>Voltage at A0</t>
-  </si>
-  <si>
-    <t>U=R3*I</t>
-  </si>
-  <si>
-    <t>U=(R2+R3)*I</t>
-  </si>
-  <si>
     <t>case 2: no button pressed</t>
   </si>
   <si>
-    <t>I=U/(R1+R2+R3+R4)</t>
-  </si>
-  <si>
     <t>U=(R1+R2+R3)*I</t>
+  </si>
+  <si>
+    <t>Volt per step</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>I=U/(R1+R2+R3+R4+R5)</t>
+  </si>
+  <si>
+    <t>I=U/(R3+R4+R5)</t>
+  </si>
+  <si>
+    <t>U=(R3+R5)*I</t>
+  </si>
+  <si>
+    <t>I=U/(R2+R3+R4+R5)</t>
+  </si>
+  <si>
+    <t>U=(R2+R3+R5)*I</t>
+  </si>
+  <si>
+    <t>I=U/(R4+R5)</t>
+  </si>
+  <si>
+    <t>U=R5*I</t>
   </si>
 </sst>
 </file>
@@ -96,14 +103,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.00&quot; V&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00&quot; mA&quot;"/>
-    <numFmt numFmtId="168" formatCode="0&quot; Ω&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00&quot; V&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00&quot; mA&quot;"/>
+    <numFmt numFmtId="166" formatCode="0&quot; Ω&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,13 +144,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -452,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DB1744-07CD-498A-9CB3-61F7FE4AC053}">
-  <dimension ref="A3:E27"/>
+  <dimension ref="A3:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,171 +476,216 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <f>B3/(B8+B9)*1000</f>
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="G12">
+        <v>1023</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B9*B12/1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="D13">
+        <f>B13/G13</f>
+        <v>511.5</v>
+      </c>
+      <c r="G13">
+        <f>5/1023</f>
+        <v>4.8875855327468231E-3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B3/(B5+B6+B7+B8+B9)*1000</f>
+        <v>0.1577287066246057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <f>(B5+B6+B7)*B16/1000</f>
+        <v>1.8454258675078865</v>
+      </c>
+      <c r="D17">
+        <f>B17/G13</f>
+        <v>377.57413249211356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
-        <f>B3/B8*1000</f>
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4">
-        <f>B3/(B5+B6+B7+B8)*1000</f>
-        <v>0.31446540880503143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3">
-        <f>(B5+B6+B7)*B15</f>
-        <v>1855.3459119496854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4">
-        <f>B3/(B7+B8)*1000</f>
-        <v>0.45454545454545453</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3">
-        <f>B7*B19</f>
-        <v>454.5454545454545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B3/(B6+B7+B8)*1000</f>
-        <v>0.41666666666666669</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <f>B3/(B7+B8+B9)*1000</f>
+        <v>0.20920502092050208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <f>(B7+B9)*B20/1000</f>
+        <v>2.9079497907949792</v>
+      </c>
+      <c r="D21">
+        <f>B21/G13</f>
+        <v>594.96652719665269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3">
-        <f>(B6+B7)*B23</f>
-        <v>833.33333333333337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <f>B3/(B6+B7+B8+B9)*1000</f>
+        <v>0.17985611510791366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <f>(B6+B7+B9)*B24/1000</f>
+        <v>3.2014388489208629</v>
+      </c>
+      <c r="D25">
+        <f>B25/G13</f>
+        <v>655.01438848920861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pictures/Mappe1.xlsx
+++ b/pictures/Mappe1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuebboTerHell\PycharmProjects\Arduino-Nano-Fragment-Two-Buttons-With-Diagnostic\pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25101CCF-03F7-4C06-954D-A5B740F91719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCFE193-6D3C-4035-84B2-5598A3482A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{88607819-2EE3-4F49-9535-AC2269C63CFE}"/>
+    <workbookView xWindow="31740" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{88607819-2EE3-4F49-9535-AC2269C63CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>R1</t>
   </si>
@@ -96,6 +95,21 @@
   </si>
   <si>
     <t>U=R5*I</t>
+  </si>
+  <si>
+    <t>U=(R1+R2+R3+R5)*I</t>
+  </si>
+  <si>
+    <t>case 5: short cut</t>
+  </si>
+  <si>
+    <t>U=(R5)*I</t>
+  </si>
+  <si>
+    <t>case 3: fault</t>
+  </si>
+  <si>
+    <t>I=U/(R1+R2+R3+R4)</t>
   </si>
 </sst>
 </file>
@@ -465,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DB1744-07CD-498A-9CB3-61F7FE4AC053}">
-  <dimension ref="A3:H28"/>
+  <dimension ref="A3:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -593,15 +607,15 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <f>(B5+B6+B7)*B16/1000</f>
-        <v>1.8454258675078865</v>
+        <f>(B5+B6+B7+B9)*B16/1000</f>
+        <v>3.4227129337539437</v>
       </c>
       <c r="D17">
         <f>B17/G13</f>
-        <v>377.57413249211356</v>
+        <v>700.28706624605684</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,8 +691,66 @@
         <v>5</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B3/(B8+B9)*1000</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1">
+        <f>(B9)*B32/1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="D33">
+        <f>B33/G13</f>
+        <v>511.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B3/(B5+B6+B7+B8)*1000</f>
+        <v>0.2304147465437788</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1">
+        <f>(B5+B6+B7)*B37/1000</f>
+        <v>2.6958525345622122</v>
+      </c>
+      <c r="D38">
+        <f>B38/G13</f>
+        <v>551.57142857142867</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A23:D23"/>
